--- a/DATA_goal/Junction_Flooding_306.xlsx
+++ b/DATA_goal/Junction_Flooding_306.xlsx
@@ -447,7 +447,7 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44987.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44987.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.6</v>
+        <v>26.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.68</v>
+        <v>106.78</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.86</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44987.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44987.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_306.xlsx
+++ b/DATA_goal/Junction_Flooding_306.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44987.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44987.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.73</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>20</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.74</v>
+        <v>16.741</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.54</v>
+        <v>7.537</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.01</v>
+        <v>26.008</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.439</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.449</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>9.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.1</v>
+        <v>7.101</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.55</v>
+        <v>10.552</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.15</v>
+        <v>6.149</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.78</v>
+        <v>106.784</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.96</v>
+        <v>20.959</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.738</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.539</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.86</v>
+        <v>7.855</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.893</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.19</v>
+        <v>14.187</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.1</v>
+        <v>6.095</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.29</v>
+        <v>6.285</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.01</v>
+        <v>7.009</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.63</v>
+        <v>23.635</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.3</v>
+        <v>4.296</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>8.35</v>
@@ -863,55 +863,55 @@
         <v>44987.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.322</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.495</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.57</v>
+        <v>3.571</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.05</v>
+        <v>3.046</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.419</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2</v>
+        <v>2.003</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>2.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.186</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.184</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.163</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -920,46 +920,46 @@
         <v>15.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.55</v>
+        <v>4.548</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.233</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.77</v>
+        <v>2.766</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.29</v>
+        <v>5.291</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>1.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.666</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.679</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.2</v>
+        <v>2.199</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.015</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44987.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_306.xlsx
+++ b/DATA_goal/Junction_Flooding_306.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44987.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.983</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1.11</v>
@@ -976,94 +976,198 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.69</v>
+        <v>2.693</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.259</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.122</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.06</v>
+        <v>6.058</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.911</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.508</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.149</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.581</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.68</v>
+        <v>9.679</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.24</v>
+        <v>3.243</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.32</v>
+        <v>1.318</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.265</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.249</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.255</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.68</v>
+        <v>5.682</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44987.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>46.69</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250.05</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_306.xlsx
+++ b/DATA_goal/Junction_Flooding_306.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44987.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.983</v>
+        <v>0.98</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1.11</v>
@@ -976,198 +976,94 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.693</v>
+        <v>2.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.259</v>
+        <v>2.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.122</v>
+        <v>1.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.058</v>
+        <v>6.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.832</v>
+        <v>1.83</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.911</v>
+        <v>0.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.508</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.607</v>
+        <v>1.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.149</v>
+        <v>1.15</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.581</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.679</v>
+        <v>9.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.243</v>
+        <v>3.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.916</v>
+        <v>0.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.318</v>
+        <v>1.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.265</v>
+        <v>3.26</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.249</v>
+        <v>1.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.255</v>
+        <v>1.26</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.682</v>
+        <v>5.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.138</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44987.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
